--- a/src/attributions/attributions_ig_traj_498.xlsx
+++ b/src/attributions/attributions_ig_traj_498.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.005130496560918854</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01619217998880783</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02338973089473632</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.02392885496758202</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.05818502912643027</v>
+        <v>-0.01693560061416057</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.02471286464988766</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01716571720899319</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03706819859932244</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0</v>
+        <v>-0.004547601632370699</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.07112923348267584</v>
+        <v>-0.02502063099885841</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1052,25 +1052,25 @@
         <v>-0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>-0.02766699180611887</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.02266889955864793</v>
+        <v>-0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05241640519003504</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0</v>
+        <v>0.05419437097972913</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04954927952803386</v>
+        <v>0.02599247979354504</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.004743365091757061</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.03373578788675215</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.02997354899040961</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>-0.02707591191183536</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.05680946282459222</v>
+        <v>0.01709765687544249</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>-0</v>
@@ -1112,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>0.01784621566429674</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.04399782444420278</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.04238883377591916</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.002509656631344049</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.08291307932036748</v>
+        <v>-0.0591894262847708</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -1133,28 +1133,28 @@
         <v>-0</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
         <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>0.02245941889391236</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.01694744484815976</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02560001453329273</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>-0.03997207371561685</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.04212831619740959</v>
+        <v>-0.0222455408604398</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1166,76 +1166,76 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0.02500263180353006</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0007874561378290207</v>
+        <v>0</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.01785509361010608</v>
+        <v>-0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>-0.002168975133050314</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.1423595684788148</v>
+        <v>-0.01063924078124795</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0</v>
+        <v>0.02326066322100957</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.01161103631470655</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.08216291522295621</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>0.03178992770114826</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.02500418187505481</v>
+        <v>0.03817303067736682</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0.001857381766410295</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.023508166538494</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.05787026902870297</v>
+        <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0</v>
+        <v>-0.01031704585172784</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.1487013765711834</v>
+        <v>-0.02132798982982983</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
@@ -1247,52 +1247,52 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0</v>
+        <v>-0.007239308633253068</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.008345168862172857</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.04119178778964086</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>0.001301096967254109</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.106090724910509</v>
+        <v>0.01597316963689811</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>-0.004172243429578691</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.02729107559137289</v>
+        <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.004132264397257625</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>-0.004981208171710785</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.07344924725409106</v>
+        <v>-0.01577156610364081</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
         <v>-0</v>
@@ -1301,19 +1301,19 @@
         <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>-0.00217257729493647</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.01798782975736333</v>
+        <v>-0</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.0614704086015585</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>0.02182022279621677</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.117590442624103</v>
+        <v>0.02569762313996425</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1322,31 +1322,31 @@
         <v>-0</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
         <v>-0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>-0.0002172611616025855</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.02396542187797704</v>
+        <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.02317276558468572</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0</v>
+        <v>0.08175342688176625</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.03387031766001668</v>
+        <v>-0.05464954313494159</v>
       </c>
       <c r="DJ2" t="n">
         <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
         <v>0</v>
@@ -1355,76 +1355,76 @@
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>-0.01734652580522425</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0053088465334086</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.04189114863395726</v>
+        <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>0.0114803559676882</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.06002178181468123</v>
+        <v>0.1013287922281259</v>
       </c>
       <c r="DS2" t="n">
         <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0</v>
+        <v>-0.01179741443645917</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.02427424352418018</v>
+        <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.02748202417383894</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.01433721291011771</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.06698527367617621</v>
+        <v>0.02473195073079327</v>
       </c>
       <c r="EB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0</v>
+        <v>-0.01408018348142348</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.00363306769435188</v>
+        <v>0</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.07812834885519</v>
+        <v>-0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.0365070358046652</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.133729242011046</v>
+        <v>0.07043197269217763</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1436,22 +1436,22 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0.01767988419955132</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.1227516518284486</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0508818755819503</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0</v>
+        <v>0.01408851028855623</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.06573187733554758</v>
+        <v>0.04907402152391164</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0</v>
+        <v>-0.00326685600030628</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.006107170244432603</v>
+        <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.055702016003706</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>0.01708878651669269</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.1165315212071111</v>
+        <v>0.02962248912172181</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
@@ -1484,55 +1484,55 @@
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>0.01353753197573294</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.1024744132301175</v>
+        <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.02217018014569395</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0</v>
+        <v>0.0473094570095499</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.02872644081571213</v>
+        <v>0.07124980721699638</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0.01169197431578245</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.1986601481418193</v>
+        <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.04121904105269848</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0.009271809757468087</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.1403167092886494</v>
+        <v>0.08485382841411168</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1544,90 +1544,90 @@
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0</v>
+        <v>-0.0007367975867645503</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.104783839287655</v>
+        <v>0</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.07958197823373159</v>
+        <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>0.03456136806104576</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.06953688439298004</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>-0.01802642255756185</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.007302337708607112</v>
+        <v>0.00137538753950138</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0.5052551783512984</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1881420108232414</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1012684263910104</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>-0.0303317485894369</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002617529582022757</v>
+        <v>-0.02436577158335003</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.3482606298072715</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.139683259974651</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.02553770174778712</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>-0</v>
@@ -1636,25 +1636,25 @@
         <v>-0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.01663914243282382</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09771998087541839</v>
+        <v>0.07818631825847189</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>0.04737148275777644</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01439813589950216</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01201465095595309</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
         <v>-0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>-0.02801164544941828</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.04232794140137325</v>
+        <v>0.02602505742690114</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>0.02708899519688088</v>
       </c>
       <c r="AH3" t="n">
         <v>-0</v>
@@ -1678,52 +1678,52 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.008576499606846213</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.08378951503515683</v>
+        <v>-0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-0.02702469349752857</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.001980972009162287</v>
+        <v>-0.0594813019651976</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>0.04579260220400171</v>
       </c>
       <c r="AQ3" t="n">
         <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.01161766133601974</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.161435078639574</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>-0.02005802770442524</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.01440122191149556</v>
+        <v>0.04886987481839743</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>0.328190777470861</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0</v>
@@ -1732,145 +1732,145 @@
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.1808118064861378</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.02885140207869241</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
         <v>-0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>-0.01604642426108615</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.0256755553291746</v>
+        <v>-0.00488960269155806</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>0.08156072267757562</v>
       </c>
       <c r="BI3" t="n">
         <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.01981422631379279</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.02716221299040351</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>0.01078948871334732</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0007700332488356753</v>
+        <v>0.02224153603180841</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>0.04228142164201944</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.01414028348518357</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0.1519170217461658</v>
+        <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>-0.02173066233972291</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.0257000687234336</v>
+        <v>0.03998230953093256</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>0.1320242281631021</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0511180369245739</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.06956398106835458</v>
+        <v>-0</v>
       </c>
       <c r="CE3" t="n">
         <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0</v>
+        <v>0.01894025474399924</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.01470864620660125</v>
+        <v>-0.0008720681587888977</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>-0.0970636524279626</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.02324045273057972</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.005597733178538332</v>
+        <v>-0</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>0</v>
+        <v>-0.003492794481246962</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.007890754981641272</v>
+        <v>-0.02115982449754519</v>
       </c>
       <c r="CR3" t="n">
-        <v>0</v>
+        <v>-0.02373757270871685</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.05504983860840576</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.05974576862042912</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1879,13 +1879,13 @@
         <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0.0244168598420817</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.02290343719505355</v>
+        <v>0.004767563638659294</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0</v>
+        <v>-0.08992352107104465</v>
       </c>
       <c r="DB3" t="n">
         <v>0</v>
@@ -1894,106 +1894,106 @@
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.032696324583614</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.04988249005481935</v>
+        <v>-0</v>
       </c>
       <c r="DF3" t="n">
         <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>-0.01984978673041322</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.008819839276556355</v>
+        <v>-0.02627699406989251</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>-0.02077541640713792</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
         <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.0195681181796203</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0.05530892194975205</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP3" t="n">
         <v>-0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>-0.01503995111913278</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.02452689063328977</v>
+        <v>0.07076097943013691</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0.01380463233941497</v>
       </c>
       <c r="DT3" t="n">
         <v>-0</v>
       </c>
       <c r="DU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.04306982773120492</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0.0051891859397757</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>-0.03230563932452513</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0156664183400984</v>
+        <v>-0.006141079327499638</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0.051662033000376</v>
       </c>
       <c r="EC3" t="n">
         <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.01501967566714998</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.1234034693284599</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>0.0585366265569453</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.02024724380695508</v>
+        <v>0.0270182361087934</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>-0.1086868860668046</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
@@ -2002,10 +2002,10 @@
         <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.05355151539360004</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.064479766502955</v>
+        <v>-0</v>
       </c>
       <c r="EP3" t="n">
         <v>-0</v>
@@ -2014,40 +2014,40 @@
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0.04672893403672061</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02521041235715984</v>
+        <v>0.03172565915530302</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>-0.07087105212491739</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
         <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.07137230842083034</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.05847695163479787</v>
+        <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>0</v>
+        <v>0.01557261574551646</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.02645214611199895</v>
+        <v>-0.01728727679270572</v>
       </c>
       <c r="FC3" t="n">
-        <v>0</v>
+        <v>-0.08674334406668699</v>
       </c>
       <c r="FD3" t="n">
         <v>-0</v>
@@ -2056,79 +2056,79 @@
         <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.02730144718278587</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0.04745192795090717</v>
+        <v>-0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0</v>
+        <v>-0.009839159865455702</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.03223169144647621</v>
+        <v>-0.02811539912733575</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0.0003142644878452895</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.04295519421642779</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0.02838354175189988</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>-0.01925484836449415</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.03585033048549513</v>
+        <v>-0.1268052952161465</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>-0.03847016567433773</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0.02709518372334679</v>
+        <v>-0</v>
       </c>
       <c r="FY3" t="n">
-        <v>-0.02210747261638453</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA3" t="n">
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>0.02741854847410577</v>
       </c>
       <c r="GC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>0.03229545231933784</v>
       </c>
       <c r="GE3" t="n">
         <v>-0</v>
@@ -2137,7 +2137,7 @@
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.0619639366428601</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
